--- a/Ejercicio 3 TDL.xlsx
+++ b/Ejercicio 3 TDL.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-30" windowWidth="14790" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="-60" yWindow="-30" windowWidth="22185" windowHeight="12795" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="1" r:id="rId1"/>
     <sheet name="3.2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="3.3" sheetId="3" r:id="rId3"/>
+    <sheet name="3.4" sheetId="4" r:id="rId4"/>
+    <sheet name="3.5" sheetId="5" r:id="rId5"/>
+    <sheet name="3.6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="153">
   <si>
     <t>local B in</t>
   </si>
@@ -81,14 +84,407 @@
     <t>PASO 3</t>
   </si>
   <si>
-    <t>(&lt;s1_2&gt;,E')</t>
+    <t>B=false</t>
+  </si>
+  <si>
+    <t>&lt;s2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s3_1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s3_2&gt;</t>
+  </si>
+  <si>
+    <t>(&lt;s2&gt;,E')</t>
+  </si>
+  <si>
+    <t>(&lt;s3&gt;,E')</t>
+  </si>
+  <si>
+    <t>PASO 4</t>
+  </si>
+  <si>
+    <t>{b1-&gt;false}</t>
+  </si>
+  <si>
+    <t>PASO 5</t>
+  </si>
+  <si>
+    <t>(&lt;s3_2&gt;,E')</t>
+  </si>
+  <si>
+    <t>local X Z A B P in</t>
+  </si>
+  <si>
+    <t>proc {P X Y}</t>
+  </si>
+  <si>
+    <t>Y = X+Z</t>
+  </si>
+  <si>
+    <t>Z=7</t>
+  </si>
+  <si>
+    <t>X=4</t>
+  </si>
+  <si>
+    <t>{P X A}</t>
+  </si>
+  <si>
+    <t>{P A B}</t>
+  </si>
+  <si>
+    <t>&lt;sp&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s5&gt;</t>
+  </si>
+  <si>
+    <t>E' = {X -&gt; x1, Z-&gt; z1, A -&gt;a1, B-&gt; b1, P -&gt; p1}</t>
+  </si>
+  <si>
+    <t>{x1,z1,a1,b1,p1}</t>
+  </si>
+  <si>
+    <t>(&lt;s4&gt;,E')</t>
+  </si>
+  <si>
+    <t>(&lt;s5&gt;,E')</t>
+  </si>
+  <si>
+    <t>PASO 6</t>
+  </si>
+  <si>
+    <t>{x1=4,z1=7,a1,b1,p1=proc(X Y) &lt;sp&gt; end,{})}</t>
+  </si>
+  <si>
+    <t>PASO 7</t>
+  </si>
+  <si>
+    <t>{x1=4,z1=7,a1=11,b1,p1=proc(X Y) &lt;sp&gt; end,{})}</t>
+  </si>
+  <si>
+    <t>PASO 8</t>
+  </si>
+  <si>
+    <t>PASO 9</t>
+  </si>
+  <si>
+    <t>{x1=4,z1=7,a1=11,b1=18,p1=proc(X Y) &lt;sp&gt; end,{})}</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Z=10</t>
+  </si>
+  <si>
+    <t>local Z in</t>
+  </si>
+  <si>
+    <t>Z=2</t>
+  </si>
+  <si>
+    <t>&lt;s3_3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s3_4&gt;</t>
+  </si>
+  <si>
+    <t>(&lt;s3_1&gt;,E'')</t>
+  </si>
+  <si>
+    <t>(&lt;s3_2&gt;,E'')</t>
+  </si>
+  <si>
+    <t>(&lt;s3_3&gt;,E'')</t>
+  </si>
+  <si>
+    <t>(&lt;s3_4&gt;,E'')</t>
+  </si>
+  <si>
+    <t>E''={Z-&gt;z2,X -&gt; x1, A -&gt;a1, B-&gt; b1, P -&gt; p1 }</t>
+  </si>
+  <si>
+    <t>E'''={X-&gt;x1,Y-&gt;a1,Z-&gt;z2}</t>
+  </si>
+  <si>
+    <t>E'' = {X-&gt;x1,Y-&gt;a1, Z-&gt;z1}</t>
+  </si>
+  <si>
+    <t>E''' = {X-&gt;a1,Y-&gt;b1, Z-&gt;z1}</t>
+  </si>
+  <si>
+    <t>E''''={X-&gt;a1,Y-&gt;b1,Z-&gt;z2}</t>
+  </si>
+  <si>
+    <t>local X Y Z P Q in</t>
+  </si>
+  <si>
+    <t>Y=4</t>
+  </si>
+  <si>
+    <t>proc {P A B}</t>
+  </si>
+  <si>
+    <t>proc {B U V}</t>
+  </si>
+  <si>
+    <t>local F in</t>
+  </si>
+  <si>
+    <t>F=A+1</t>
+  </si>
+  <si>
+    <t>V=U+F</t>
+  </si>
+  <si>
+    <t>{P X Q}</t>
+  </si>
+  <si>
+    <t>{Q Y Z}</t>
+  </si>
+  <si>
+    <t>x=6</t>
+  </si>
+  <si>
+    <t>&lt;sp1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sp2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sp2_1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sp2_1_2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;sp2_1_1&gt;</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>&lt;s0&gt;, E</t>
+  </si>
+  <si>
+    <t>E={}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>&lt;s1&gt; , E'</t>
+  </si>
+  <si>
+    <t>&lt;s2&gt;, E'</t>
+  </si>
+  <si>
+    <t>&lt;s3&gt;, E'</t>
+  </si>
+  <si>
+    <t>&lt;s4&gt;, E'</t>
+  </si>
+  <si>
+    <t>E' = {X-&gt;x1, Y-&gt;y1, Z-&gt;z1, P-&gt;p1, Q-&gt;q1}</t>
+  </si>
+  <si>
+    <t>{x1,y1,z1,p1,q1}</t>
+  </si>
+  <si>
+    <t>&lt;sp_1&gt;</t>
+  </si>
+  <si>
+    <t>{x1,z1,a1,b1,p1 = proc(X Y) &lt;sp&gt; end,{})}</t>
+  </si>
+  <si>
+    <t>(&lt;sp&gt;, E')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{x1,z1 = 7,a1,b1,p1 = proc(X Y) &lt;sp&gt; end,{})}</t>
+  </si>
+  <si>
+    <t>{x1 = 4,z1 = 7,a1,b1,p1 = proc(X Y) &lt;sp&gt; end,{})}</t>
+  </si>
+  <si>
+    <t>PASO 10</t>
+  </si>
+  <si>
+    <t>(&lt;sp_1&gt;,E''')</t>
+  </si>
+  <si>
+    <t>(&lt;sp_1&gt;,E'')</t>
+  </si>
+  <si>
+    <t>{x1,z1,a1,b1,p1 =proc(X Y) &lt;sp&gt; end,{})}</t>
+  </si>
+  <si>
+    <t>(&lt;sp_1&gt;,E'''')</t>
+  </si>
+  <si>
+    <t>PASO 11</t>
+  </si>
+  <si>
+    <t>PASO 12</t>
+  </si>
+  <si>
+    <t>&lt;sp1&gt;,E'</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1,p1,q1}</t>
+  </si>
+  <si>
+    <t>{x1,z1=10,a1,b1,p1=proc(X Y) &lt;sp&gt; end,{})}</t>
+  </si>
+  <si>
+    <t>{x1,z1=10,a1,b1,p1 =proc(X Y) &lt;sp&gt; end,{}),z2}</t>
+  </si>
+  <si>
+    <t>{x1,z1=10,a1,b1,p1=proc(X Y) &lt;sp&gt; end,{}),z2=2}</t>
+  </si>
+  <si>
+    <t>{x1=4,z1=10,a1,b1,p1 =proc(X Y) &lt;sp&gt; end,{}),z2=2}</t>
+  </si>
+  <si>
+    <t>{x1=4,z1=10,a1=6,b1,p1 =proc(X Y) &lt;sp&gt; end,{}),z2=2}</t>
+  </si>
+  <si>
+    <t>{x1=4,z1=10,a1=6,b1=8,p1 =proc(X Y) &lt;sp&gt; end,{}),z2=2}</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1}</t>
+  </si>
+  <si>
+    <t>&lt;sp2&gt;,E''</t>
+  </si>
+  <si>
+    <t>E''={A-&gt;x1,B-&gt;q1}</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{}}</t>
+  </si>
+  <si>
+    <t>&lt;sp2_1&gt;,E'''</t>
+  </si>
+  <si>
+    <t>&lt;sp2_1_2&gt;,E4</t>
+  </si>
+  <si>
+    <t>&lt;sp2_1_1&gt;,E4</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{},f1}</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{},f1=7}</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1=11,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{},f1=7}</t>
+  </si>
+  <si>
+    <t>E'''={U-&gt;y1,V-&gt;z1,A-&gt;x1}</t>
+  </si>
+  <si>
+    <t>E4= {U-&gt;y1,V-&gt;z1,A-&gt;x1,F-&gt;f1}</t>
+  </si>
+  <si>
+    <t>local X Y Z in</t>
+  </si>
+  <si>
+    <t>X = Y</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>catch Exception then</t>
+  </si>
+  <si>
+    <t>Z= 10</t>
+  </si>
+  <si>
+    <t>{Browse X#Y#Z}</t>
+  </si>
+  <si>
+    <t>X=1</t>
+  </si>
+  <si>
+    <t>Y=2</t>
+  </si>
+  <si>
+    <t>Z=3</t>
+  </si>
+  <si>
+    <t>&lt;s2_1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s2_2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s2_3&gt;</t>
+  </si>
+  <si>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>&lt;s1&gt;,E'</t>
+  </si>
+  <si>
+    <t>&lt;s2&gt;,E'</t>
+  </si>
+  <si>
+    <t>&lt;s3&gt;,E'</t>
+  </si>
+  <si>
+    <t>E'={X-&gt;x1,Y-&gt;y1,Z-&gt;z1}</t>
+  </si>
+  <si>
+    <t>{x1,y1,z1}</t>
+  </si>
+  <si>
+    <t>{x1=y1,z1}</t>
+  </si>
+  <si>
+    <t>&lt;s2_1&gt;,E'</t>
+  </si>
+  <si>
+    <t>&lt;s2_2&gt;,E'</t>
+  </si>
+  <si>
+    <t>&lt;s2_3&gt;,E'</t>
+  </si>
+  <si>
+    <t>{x1=y1=1,z1}</t>
+  </si>
+  <si>
+    <t>&lt;s4&gt;,E'</t>
+  </si>
+  <si>
+    <t>&lt;s3_1&gt;,E'</t>
+  </si>
+  <si>
+    <t>{x1=y1=1,z1=10}</t>
+  </si>
+  <si>
+    <t>Browse(1#1#10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +502,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +536,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,14 +638,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,12 +689,69 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +1049,7 @@
   <dimension ref="A3:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -485,23 +1060,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -511,9 +1086,9 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -523,8 +1098,8 @@
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="23.25">
       <c r="A7" s="2"/>
@@ -532,9 +1107,9 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -544,8 +1119,8 @@
         <v>4</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -553,18 +1128,18 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -572,7 +1147,7 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
@@ -586,7 +1161,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
@@ -596,12 +1171,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>21</v>
+    <row r="18" spans="4:4">
+      <c r="D18" s="26" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -619,14 +1191,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="23.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="23.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="23.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="23.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="23.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="23.25">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -634,13 +1387,1342 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="23.25">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23.25">
+      <c r="A3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="23.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23.25">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23.25">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="D20" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="D21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="D22" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="D23" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="D26" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="D28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="I31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="D32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="D33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="D36" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="D39" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E3:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="23.25">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="23.25">
+      <c r="A3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="23.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="23.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="23.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="23.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="23.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23.25">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="23.25">
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="23.25">
+      <c r="A12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="H15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="29"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="C32" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="C33" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="C34" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="C37" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="C38" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="C41" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="C44" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="E3:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:N49"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="23.25">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="23.25">
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="23.25">
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="23.25">
+      <c r="B5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="23.25">
+      <c r="A6" s="31"/>
+      <c r="C6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="23.25">
+      <c r="D7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="23.25">
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="23.25">
+      <c r="E9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23.25">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" ht="23.25">
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="23.25">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="23.25">
+      <c r="B13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="23.25">
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="23.25">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13">
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13">
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13">
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13">
+      <c r="H24" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13">
+      <c r="H25" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13">
+      <c r="H26" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13">
+      <c r="H27" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13">
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13">
+      <c r="H30" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="6:13">
+      <c r="H31" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14">
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14">
+      <c r="H34" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14">
+      <c r="N35" s="40"/>
+    </row>
+    <row r="36" spans="6:14">
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14">
+      <c r="H37" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14">
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="6:14">
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="K41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="6:14">
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14">
+      <c r="H44" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="6:14">
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="M46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="6:14">
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:M48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="23.25">
+      <c r="A2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="23.25">
+      <c r="B3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="23.25">
+      <c r="B4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="23.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="23.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="23.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="23.25">
+      <c r="B8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="23.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="23.25">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" ht="23.25">
+      <c r="B11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="23.25">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="G17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="G18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="G19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="G22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
+      <c r="G23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13">
+      <c r="G26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13">
+      <c r="G27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13">
+      <c r="G28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13">
+      <c r="G29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>146</v>
+      </c>
+      <c r="M31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13">
+      <c r="G32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13">
+      <c r="G33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13">
+      <c r="G34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13">
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13">
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13">
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13">
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13">
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13">
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13">
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E8:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>